--- a/biology/Médecine/Hôpital_militaire_Gaujot/Hôpital_militaire_Gaujot.xlsx
+++ b/biology/Médecine/Hôpital_militaire_Gaujot/Hôpital_militaire_Gaujot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_Gaujot</t>
+          <t>Hôpital_militaire_Gaujot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien hôpital militaire Gaujot est un monument historique situé à Strasbourg, dans le département français du Bas-Rhin. Il doit son nom à Gustave Gaujot (1828-1913), ancien médecin-chef de l'hôpital[1]. C'est aujourd'hui une cité administrative.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien hôpital militaire Gaujot est un monument historique situé à Strasbourg, dans le département français du Bas-Rhin. Il doit son nom à Gustave Gaujot (1828-1913), ancien médecin-chef de l'hôpital. C'est aujourd'hui une cité administrative.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_Gaujot</t>
+          <t>Hôpital_militaire_Gaujot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ancien hôpital est situé au 2, rue de l'Hôpital-Militaire à Strasbourg dans le quartier de la Krutenau.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_Gaujot</t>
+          <t>Hôpital_militaire_Gaujot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été construit à la fin du XVIIe siècle.
-Les façades et toitures du pavillon d'entrée, les façades sur cour d'honneur des bâtiments Nord et Sud et du pavillon de l'Horloge font l'objet d'une inscription au titre des monuments historiques depuis 1929[2].
-Depuis 1945 les bâtiments accueillent la cité administrative. L'hôpital militaire a été transféré dans le quartier du Neuhof en 1946 (Hôpital militaire Lyautey, fermé en 1996[3]).
+Les façades et toitures du pavillon d'entrée, les façades sur cour d'honneur des bâtiments Nord et Sud et du pavillon de l'Horloge font l'objet d'une inscription au titre des monuments historiques depuis 1929.
+Depuis 1945 les bâtiments accueillent la cité administrative. L'hôpital militaire a été transféré dans le quartier du Neuhof en 1946 (Hôpital militaire Lyautey, fermé en 1996).
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_Gaujot</t>
+          <t>Hôpital_militaire_Gaujot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
